--- a/Examples/pcb/pcb_fp.xlsx
+++ b/Examples/pcb/pcb_fp.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="772" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1077" uniqueCount="305">
   <si>
     <t>Key</t>
   </si>
@@ -926,6 +926,21 @@
   </si>
   <si>
     <t>Value(kW)</t>
+  </si>
+  <si>
+    <t>IN15</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>OXI</t>
+  </si>
+  <si>
+    <t>SLGW</t>
+  </si>
+  <si>
+    <t>ACSW</t>
   </si>
 </sst>
 </file>
@@ -6669,8 +6684,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="true"/>
-    <col min="2" max="2" width="8.5703125" customWidth="true"/>
-    <col min="3" max="3" width="8.5703125" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="6.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -6710,10 +6725,10 @@
         <v>274</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D3" s="0">
-        <v>1551.5980110100575</v>
+        <v>837.89868283461612</v>
       </c>
     </row>
     <row r="4">
@@ -6724,10 +6739,10 @@
         <v>275</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D4" s="0">
-        <v>1974.0043708957357</v>
+        <v>2827.6623403502954</v>
       </c>
     </row>
     <row r="5">
@@ -6738,10 +6753,10 @@
         <v>276</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" s="0">
-        <v>1520.5037578297815</v>
+        <v>4940.2301263951349</v>
       </c>
     </row>
     <row r="6">
@@ -6752,10 +6767,10 @@
         <v>277</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6" s="0">
-        <v>4940.2301263951349</v>
+        <v>23.004962074669848</v>
       </c>
     </row>
     <row r="7">
@@ -6766,10 +6781,10 @@
         <v>278</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D7" s="0">
-        <v>23.004962074669848</v>
+        <v>1586.0342516522257</v>
       </c>
     </row>
     <row r="8">
@@ -6780,10 +6795,10 @@
         <v>279</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0">
-        <v>1586.0342516522257</v>
+        <v>18.860842352260732</v>
       </c>
     </row>
     <row r="9">
@@ -6794,10 +6809,10 @@
         <v>280</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="D9" s="0">
-        <v>18.860842352260732</v>
+        <v>848.76618787671407</v>
       </c>
     </row>
     <row r="10">
@@ -6808,10 +6823,10 @@
         <v>281</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D10" s="0">
-        <v>380.21286216874472</v>
+        <v>4501.1944884707818</v>
       </c>
     </row>
     <row r="11">
@@ -6822,10 +6837,10 @@
         <v>282</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" s="0">
-        <v>4501.1944884707818</v>
+        <v>6318.6202630866837</v>
       </c>
     </row>
     <row r="12">
@@ -6836,10 +6851,10 @@
         <v>283</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" s="0">
-        <v>6318.6202630866837</v>
+        <v>2694.4458295273284</v>
       </c>
     </row>
     <row r="13">
@@ -6850,10 +6865,10 @@
         <v>284</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D13" s="0">
-        <v>2694.4458295273284</v>
+        <v>413.33354580790501</v>
       </c>
     </row>
     <row r="14">
@@ -6864,10 +6879,10 @@
         <v>285</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" s="0">
-        <v>413.3335458079049</v>
+        <v>7407.4112151954014</v>
       </c>
     </row>
     <row r="15">
@@ -6878,10 +6893,10 @@
         <v>286</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="D15" s="0">
-        <v>7407.4112151954032</v>
+        <v>713.69932817544179</v>
       </c>
     </row>
     <row r="16">
@@ -6889,13 +6904,13 @@
         <v>231</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D16" s="0">
-        <v>80173.625871283366</v>
+        <v>198.51581138444632</v>
       </c>
     </row>
     <row r="17">
@@ -6903,13 +6918,13 @@
         <v>232</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="D17" s="0">
-        <v>66178.293835996054</v>
+        <v>56124.590917840476</v>
       </c>
     </row>
     <row r="18">
@@ -6917,13 +6932,13 @@
         <v>233</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="D18" s="0">
-        <v>708.51843060302815</v>
+        <v>2494.9701762909667</v>
       </c>
     </row>
     <row r="19">
@@ -6931,13 +6946,13 @@
         <v>234</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D19" s="0">
-        <v>13995.332035287311</v>
+        <v>255.78842027039786</v>
       </c>
     </row>
     <row r="20">
@@ -6945,13 +6960,13 @@
         <v>235</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D20" s="0">
-        <v>1999.9999999999998</v>
+        <v>519.96603710056763</v>
       </c>
     </row>
     <row r="21">
@@ -6959,13 +6974,13 @@
         <v>236</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="D21" s="0">
-        <v>5093.7800173578507</v>
+        <v>2746.2503011671433</v>
       </c>
     </row>
     <row r="22">
@@ -6973,13 +6988,13 @@
         <v>237</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="D22" s="0">
-        <v>9494.2509599539044</v>
+        <v>281.55006936673152</v>
       </c>
     </row>
     <row r="23">
@@ -6990,10 +7005,10 @@
         <v>199</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D23" s="0">
-        <v>50.027420760144928</v>
+        <v>33.147426628921323</v>
       </c>
     </row>
     <row r="24">
@@ -7001,13 +7016,13 @@
         <v>239</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="0">
-        <v>7366.3682729083284</v>
+        <v>2770.1406399763478</v>
       </c>
     </row>
     <row r="25">
@@ -7015,13 +7030,13 @@
         <v>240</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="D25" s="0">
-        <v>755.21211498339733</v>
+        <v>381.43961938076444</v>
       </c>
     </row>
     <row r="26">
@@ -7029,13 +7044,13 @@
         <v>241</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D26" s="0">
-        <v>3525.3527549597466</v>
+        <v>3642.7012516456189</v>
       </c>
     </row>
     <row r="27">
@@ -7043,13 +7058,13 @@
         <v>242</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="D27" s="0">
-        <v>381.4396193807645</v>
+        <v>2533.6723459582408</v>
       </c>
     </row>
     <row r="28">
@@ -7057,13 +7072,13 @@
         <v>243</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0">
-        <v>2098.9100731338467</v>
+        <v>17611.504742460911</v>
       </c>
     </row>
     <row r="29">
@@ -7071,13 +7086,13 @@
         <v>244</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0">
-        <v>3642.7012516456189</v>
+        <v>188.55239350246066</v>
       </c>
     </row>
     <row r="30">
@@ -7085,13 +7100,13 @@
         <v>245</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D30" s="0">
-        <v>232.72425416774283</v>
+        <v>12335.582495138327</v>
       </c>
     </row>
     <row r="31">
@@ -7099,13 +7114,13 @@
         <v>246</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D31" s="0">
-        <v>2924.4182116711308</v>
+        <v>11.856608180959947</v>
       </c>
     </row>
     <row r="32">
@@ -7113,13 +7128,13 @@
         <v>247</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="D32" s="0">
-        <v>4.8045569213592705</v>
+        <v>9.3062463321253972</v>
       </c>
     </row>
     <row r="33">
@@ -7127,13 +7142,13 @@
         <v>248</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D33" s="0">
-        <v>123.89102923680196</v>
+        <v>5.063125932843608</v>
       </c>
     </row>
     <row r="34">
@@ -7141,13 +7156,13 @@
         <v>249</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D34" s="0">
-        <v>13311.381548150714</v>
+        <v>0.56517234264358762</v>
       </c>
     </row>
     <row r="35">
@@ -7155,13 +7170,13 @@
         <v>250</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="D35" s="0">
-        <v>4488.6755878126514</v>
+        <v>3.6779480566382001</v>
       </c>
     </row>
     <row r="36">
@@ -7169,13 +7184,13 @@
         <v>251</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D36" s="0">
-        <v>535.8612545524154</v>
+        <v>6437.5302109819777</v>
       </c>
     </row>
     <row r="37">
@@ -7183,13 +7198,13 @@
         <v>252</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D37" s="0">
-        <v>148.08787667122368</v>
+        <v>2125.1477954502188</v>
       </c>
     </row>
     <row r="38">
@@ -7197,13 +7212,13 @@
         <v>253</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D38" s="0">
-        <v>17561.899402017785</v>
+        <v>217.87362534626791</v>
       </c>
     </row>
     <row r="39">
@@ -7211,13 +7226,13 @@
         <v>254</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="D39" s="0">
-        <v>372.07298238943235</v>
+        <v>232.72425416774283</v>
       </c>
     </row>
     <row r="40">
@@ -7225,13 +7240,13 @@
         <v>255</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>198</v>
       </c>
       <c r="D40" s="0">
-        <v>5429.8561042141673</v>
+        <v>5226.3169068794587</v>
       </c>
     </row>
     <row r="41">
@@ -7239,13 +7254,13 @@
         <v>256</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D41" s="0">
-        <v>14.110803253484672</v>
+        <v>5.0233859502636653</v>
       </c>
     </row>
     <row r="42">
@@ -7253,13 +7268,13 @@
         <v>257</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="D42" s="0">
-        <v>9.306246332125399</v>
+        <v>2421.7633645441506</v>
       </c>
     </row>
     <row r="43">
@@ -7267,13 +7282,13 @@
         <v>258</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="D43" s="0">
-        <v>4.2431203992817883</v>
+        <v>8794.9356028080419</v>
       </c>
     </row>
     <row r="44">
@@ -7281,13 +7296,13 @@
         <v>259</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="D44" s="0">
-        <v>3.6779480566382015</v>
+        <v>5.0631259328436098</v>
       </c>
     </row>
     <row r="45">
@@ -7295,13 +7310,13 @@
         <v>260</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="D45" s="0">
-        <v>2.2442882330259204</v>
+        <v>0.56517234264358829</v>
       </c>
     </row>
     <row r="46">
@@ -7309,13 +7324,13 @@
         <v>261</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D46" s="0">
-        <v>9494.2509599539044</v>
+        <v>1.4336598236122813</v>
       </c>
     </row>
     <row r="47">
@@ -7323,13 +7338,13 @@
         <v>262</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D47" s="0">
-        <v>2098.9100731338472</v>
+        <v>9494.2509599539044</v>
       </c>
     </row>
     <row r="48">
@@ -7337,10 +7352,10 @@
         <v>263</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D48" s="0">
         <v>232.72425416774283</v>
@@ -7351,13 +7366,13 @@
         <v>264</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D49" s="0">
-        <v>2421.7633645441506</v>
+        <v>5429.8561042141682</v>
       </c>
     </row>
     <row r="50">
@@ -7471,8 +7486,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="true"/>
-    <col min="2" max="2" width="8.5703125" customWidth="true"/>
-    <col min="3" max="3" width="8.5703125" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="6.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7512,10 +7527,10 @@
         <v>274</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D3" s="0">
-        <v>1551.5980110100575</v>
+        <v>837.89868283461612</v>
       </c>
     </row>
     <row r="4">
@@ -7526,10 +7541,10 @@
         <v>275</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D4" s="0">
-        <v>1974.0043708957357</v>
+        <v>2827.6623403502954</v>
       </c>
     </row>
     <row r="5">
@@ -7540,10 +7555,10 @@
         <v>276</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" s="0">
-        <v>1520.5037578297815</v>
+        <v>4940.2301263951349</v>
       </c>
     </row>
     <row r="6">
@@ -7554,10 +7569,10 @@
         <v>277</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6" s="0">
-        <v>4940.2301263951349</v>
+        <v>23.004962074669848</v>
       </c>
     </row>
     <row r="7">
@@ -7568,10 +7583,10 @@
         <v>278</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D7" s="0">
-        <v>23.004962074669848</v>
+        <v>1586.0342516522257</v>
       </c>
     </row>
     <row r="8">
@@ -7582,10 +7597,10 @@
         <v>279</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0">
-        <v>1586.0342516522257</v>
+        <v>18.860842352260732</v>
       </c>
     </row>
     <row r="9">
@@ -7596,10 +7611,10 @@
         <v>280</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="D9" s="0">
-        <v>18.860842352260732</v>
+        <v>848.76618787671407</v>
       </c>
     </row>
     <row r="10">
@@ -7610,10 +7625,10 @@
         <v>281</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D10" s="0">
-        <v>380.21286216874472</v>
+        <v>4501.1944884707818</v>
       </c>
     </row>
     <row r="11">
@@ -7624,10 +7639,10 @@
         <v>282</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" s="0">
-        <v>4501.1944884707818</v>
+        <v>6318.6202630866837</v>
       </c>
     </row>
     <row r="12">
@@ -7638,10 +7653,10 @@
         <v>283</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" s="0">
-        <v>6318.6202630866837</v>
+        <v>2694.4458295273284</v>
       </c>
     </row>
     <row r="13">
@@ -7652,10 +7667,10 @@
         <v>284</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D13" s="0">
-        <v>2694.4458295273284</v>
+        <v>413.33354580790501</v>
       </c>
     </row>
     <row r="14">
@@ -7666,10 +7681,10 @@
         <v>285</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" s="0">
-        <v>413.3335458079049</v>
+        <v>7407.4112151954014</v>
       </c>
     </row>
     <row r="15">
@@ -7680,10 +7695,10 @@
         <v>286</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="D15" s="0">
-        <v>7407.4112151954032</v>
+        <v>713.69932817544179</v>
       </c>
     </row>
     <row r="16">
@@ -7691,13 +7706,13 @@
         <v>231</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D16" s="0">
-        <v>81051.02587128336</v>
+        <v>198.51581138444632</v>
       </c>
     </row>
     <row r="17">
@@ -7705,13 +7720,13 @@
         <v>232</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="D17" s="0">
-        <v>66902.532441655785</v>
+        <v>56738.804327002887</v>
       </c>
     </row>
     <row r="18">
@@ -7719,13 +7734,13 @@
         <v>233</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="D18" s="0">
-        <v>4204.3328680515287</v>
+        <v>32642.408426506874</v>
       </c>
     </row>
     <row r="19">
@@ -7733,13 +7748,13 @@
         <v>234</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D19" s="0">
-        <v>14148.493429627582</v>
+        <v>3071.7245133233969</v>
       </c>
     </row>
     <row r="20">
@@ -7747,13 +7762,13 @@
         <v>235</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="D20" s="0">
-        <v>9288.1057252858391</v>
+        <v>3085.4670896730149</v>
       </c>
     </row>
     <row r="21">
@@ -7761,13 +7776,13 @@
         <v>236</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="D21" s="0">
-        <v>8387.8848483021156</v>
+        <v>35929.978171274532</v>
       </c>
     </row>
     <row r="22">
@@ -7775,13 +7790,13 @@
         <v>237</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="D22" s="0">
-        <v>14842.686906744608</v>
+        <v>3381.0922671458384</v>
       </c>
     </row>
     <row r="23">
@@ -7792,10 +7807,10 @@
         <v>199</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D23" s="0">
-        <v>296.86162041925263</v>
+        <v>196.69610450173769</v>
       </c>
     </row>
     <row r="24">
@@ -7803,13 +7818,13 @@
         <v>239</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="0">
-        <v>11516.095200740952</v>
+        <v>33266.200636344678</v>
       </c>
     </row>
     <row r="25">
@@ -7817,13 +7832,13 @@
         <v>240</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="D25" s="0">
-        <v>1400.3097796906511</v>
+        <v>5253.5239608310521</v>
       </c>
     </row>
     <row r="26">
@@ -7831,13 +7846,13 @@
         <v>241</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D26" s="0">
-        <v>5805.1688250143761</v>
+        <v>43459.95472357086</v>
       </c>
     </row>
     <row r="27">
@@ -7845,13 +7860,13 @@
         <v>242</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="D27" s="0">
-        <v>1300.9721529833243</v>
+        <v>34895.977507516058</v>
       </c>
     </row>
     <row r="28">
@@ -7859,13 +7874,13 @@
         <v>243</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0">
-        <v>3891.78648460262</v>
+        <v>17804.240621537196</v>
       </c>
     </row>
     <row r="29">
@@ -7873,13 +7888,13 @@
         <v>244</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0">
-        <v>6754.2748400995588</v>
+        <v>1118.865778378515</v>
       </c>
     </row>
     <row r="30">
@@ -7887,13 +7902,13 @@
         <v>245</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D30" s="0">
-        <v>499.5775148930515</v>
+        <v>13304.950346678213</v>
       </c>
     </row>
     <row r="31">
@@ -7901,13 +7916,13 @@
         <v>246</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D31" s="0">
-        <v>6277.7022872811785</v>
+        <v>70.356853577388804</v>
       </c>
     </row>
     <row r="32">
@@ -7915,13 +7930,13 @@
         <v>247</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="D32" s="0">
-        <v>2167.800218020403</v>
+        <v>128.17385926136009</v>
       </c>
     </row>
     <row r="33">
@@ -7929,13 +7944,13 @@
         <v>248</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D33" s="0">
-        <v>422.55384824256743</v>
+        <v>3507.4217186672581</v>
       </c>
     </row>
     <row r="34">
@@ -7943,13 +7958,13 @@
         <v>249</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D34" s="0">
-        <v>61818.759584421467</v>
+        <v>391.51658000828212</v>
       </c>
     </row>
     <row r="35">
@@ -7957,13 +7972,13 @@
         <v>250</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="D35" s="0">
-        <v>7017.2999067400324</v>
+        <v>2547.8558236725021</v>
       </c>
     </row>
     <row r="36">
@@ -7971,13 +7986,13 @@
         <v>251</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D36" s="0">
-        <v>2270.8659913149877</v>
+        <v>6507.9809227432697</v>
       </c>
     </row>
     <row r="37">
@@ -7985,13 +8000,13 @@
         <v>252</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D37" s="0">
-        <v>243.85506494489155</v>
+        <v>27803.916441559388</v>
       </c>
     </row>
     <row r="38">
@@ -7999,13 +8014,13 @@
         <v>253</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D38" s="0">
-        <v>68854.920333513743</v>
+        <v>2616.4114664584772</v>
       </c>
     </row>
     <row r="39">
@@ -8013,13 +8028,13 @@
         <v>254</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="D39" s="0">
-        <v>380.21286216874478</v>
+        <v>3205.2843580370568</v>
       </c>
     </row>
     <row r="40">
@@ -8027,13 +8042,13 @@
         <v>255</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>198</v>
       </c>
       <c r="D40" s="0">
-        <v>27388.196053096548</v>
+        <v>5637.0168955897625</v>
       </c>
     </row>
     <row r="41">
@@ -8041,13 +8056,13 @@
         <v>256</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D41" s="0">
-        <v>48.127570279176439</v>
+        <v>29.808662340126183</v>
       </c>
     </row>
     <row r="42">
@@ -8055,13 +8070,13 @@
         <v>257</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="D42" s="0">
-        <v>4198.9476153454561</v>
+        <v>36482.011759168279</v>
       </c>
     </row>
     <row r="43">
@@ -8069,13 +8084,13 @@
         <v>258</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="D43" s="0">
-        <v>3142.9963599013122</v>
+        <v>14224.073388132319</v>
       </c>
     </row>
     <row r="44">
@@ -8083,13 +8098,13 @@
         <v>259</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="D44" s="0">
-        <v>3082.636228677723</v>
+        <v>6201.8675481945866</v>
       </c>
     </row>
     <row r="45">
@@ -8097,13 +8112,13 @@
         <v>260</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="D45" s="0">
-        <v>6401.0392968102697</v>
+        <v>804.85012581618707</v>
       </c>
     </row>
     <row r="46">
@@ -8111,13 +8126,13 @@
         <v>261</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D46" s="0">
-        <v>14842.686906744608</v>
+        <v>9955.2670388679053</v>
       </c>
     </row>
     <row r="47">
@@ -8125,13 +8140,13 @@
         <v>262</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D47" s="0">
-        <v>3891.7864846026205</v>
+        <v>37642.00815893658</v>
       </c>
     </row>
     <row r="48">
@@ -8139,13 +8154,13 @@
         <v>263</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D48" s="0">
-        <v>499.57751489305133</v>
+        <v>3205.2843580370554</v>
       </c>
     </row>
     <row r="49">
@@ -8153,13 +8168,13 @@
         <v>264</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D49" s="0">
-        <v>8259.883185448738</v>
+        <v>5865.3413693143357</v>
       </c>
     </row>
     <row r="50">
